--- a/client/src/main/resources/xlsx/map.xlsx
+++ b/client/src/main/resources/xlsx/map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>地图ID</t>
   </si>
@@ -28,13 +28,19 @@
     <t>新手大厅</t>
   </si>
   <si>
-    <t>D:\Users\Desktop\image</t>
+    <t>file:///D:\\Users\\Desktop\\image\\NoviceVillage.jpg</t>
   </si>
   <si>
     <t>恶人谷</t>
   </si>
   <si>
+    <t>file:///D:\\Users\\Desktop\\image\\VillainValley.jpg</t>
+  </si>
+  <si>
     <t>少林寺</t>
+  </si>
+  <si>
+    <t>D:\Users\Desktop\image</t>
   </si>
   <si>
     <t>武当山</t>
@@ -50,8 +56,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +68,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -76,9 +98,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,11 +136,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,31 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,23 +183,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,29 +207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,31 +221,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,97 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,48 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,16 +416,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,11 +463,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,32 +512,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,138 +532,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,13 +994,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="38.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="62.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="42.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1010,7 +1022,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1021,8 +1033,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1030,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1041,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1052,13 +1064,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="file:///D:\\Users\\Desktop\\image\\NoviceVillage.jpg"/>
+    <hyperlink ref="C3" r:id="rId2" display="file:///D:\\Users\\Desktop\\image\\VillainValley.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/client/src/main/resources/xlsx/map.xlsx
+++ b/client/src/main/resources/xlsx/map.xlsx
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -98,16 +99,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -115,14 +108,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,76 +168,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,73 +221,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,102 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,11 +459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,50 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,6 +503,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,16 +532,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,112 +553,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/client/src/main/resources/xlsx/map.xlsx
+++ b/client/src/main/resources/xlsx/map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>地图ID</t>
   </si>
@@ -25,6 +25,12 @@
     <t>贴图url</t>
   </si>
   <si>
+    <t>登录中</t>
+  </si>
+  <si>
+    <t>D:\Users\Desktop\image</t>
+  </si>
+  <si>
     <t>新手大厅</t>
   </si>
   <si>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t>少林寺</t>
-  </si>
-  <si>
-    <t>D:\Users\Desktop\image</t>
   </si>
   <si>
     <t>武当山</t>
@@ -54,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,9 +94,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,25 +184,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,74 +214,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,80 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,8 +436,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,16 +535,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,112 +556,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,13 +994,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="62.6666666666667" customWidth="1"/>
@@ -1022,7 +1025,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1033,7 +1036,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1044,7 +1047,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1056,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1067,13 +1070,24 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="file:///D:\\Users\\Desktop\\image\\NoviceVillage.jpg"/>
-    <hyperlink ref="C3" r:id="rId2" display="file:///D:\\Users\\Desktop\\image\\VillainValley.jpg"/>
+    <hyperlink ref="C3" r:id="rId1" display="file:///D:\\Users\\Desktop\\image\\NoviceVillage.jpg"/>
+    <hyperlink ref="C4" r:id="rId2" display="file:///D:\\Users\\Desktop\\image\\VillainValley.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
